--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.004710365838405266</v>
+        <v>0.004833799198163724</v>
       </c>
       <c r="E2">
-        <v>0.004710365838405266</v>
+        <v>0.004833799198163724</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.009948359872887601</v>
+        <v>0.009997074894470999</v>
       </c>
       <c r="E3">
-        <v>0.009948359872887601</v>
+        <v>0.009997074894470999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.121947794712595E-07</v>
+        <v>1.086933051355286E-07</v>
       </c>
       <c r="E4">
-        <v>1.121947794712595E-07</v>
+        <v>1.086933051355286E-07</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001552142815151722</v>
+        <v>0.00156078344145532</v>
       </c>
       <c r="E5">
-        <v>0.001552142815151722</v>
+        <v>0.00156078344145532</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1028146300802488</v>
+        <v>0.1025729809860371</v>
       </c>
       <c r="E6">
-        <v>0.1028146300802488</v>
+        <v>0.1025729809860371</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9811895230230064</v>
+        <v>0.8621228510711392</v>
       </c>
       <c r="E7">
-        <v>0.01881047697699356</v>
+        <v>0.1378771489288608</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9821239076669063</v>
+        <v>2.539386001995285E-07</v>
       </c>
       <c r="E8">
-        <v>0.01787609233309373</v>
+        <v>0.9999997460613999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9811371323899053</v>
+        <v>5.650572907967871E-08</v>
       </c>
       <c r="E9">
-        <v>0.0188628676100947</v>
+        <v>0.9999999434942709</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9818042541056946</v>
+        <v>4.345717238303671E-05</v>
       </c>
       <c r="E10">
-        <v>0.01819574589430539</v>
+        <v>0.9999565428276169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9823915210914799</v>
+        <v>0.1409516226474173</v>
       </c>
       <c r="E11">
-        <v>0.01760847890852013</v>
+        <v>0.8590483773525828</v>
       </c>
       <c r="F11">
-        <v>0.02169653587043285</v>
+        <v>4.415120601654053</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.3222194011403343</v>
+        <v>0.3221736294205497</v>
       </c>
       <c r="E12">
-        <v>0.3222194011403343</v>
+        <v>0.3221736294205497</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.04125100671135028</v>
+        <v>0.04121893225396613</v>
       </c>
       <c r="E13">
-        <v>0.04125100671135028</v>
+        <v>0.04121893225396613</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>2.532744142943879E-11</v>
+        <v>2.598808055917455E-11</v>
       </c>
       <c r="E14">
-        <v>2.532744142943879E-11</v>
+        <v>2.598808055917455E-11</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0001362815425442067</v>
+        <v>0.0001361609622577465</v>
       </c>
       <c r="E15">
-        <v>0.0001362815425442067</v>
+        <v>0.0001361609622577465</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.03778068667216227</v>
+        <v>0.03786170213428709</v>
       </c>
       <c r="E16">
-        <v>0.03778068667216227</v>
+        <v>0.03786170213428709</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9965455976039058</v>
+        <v>0.9412671788327128</v>
       </c>
       <c r="E17">
-        <v>0.003454402396094181</v>
+        <v>0.05873282116728717</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.996840227553062</v>
+        <v>4.870346739783319E-11</v>
       </c>
       <c r="E18">
-        <v>0.003159772446937992</v>
+        <v>0.9999999999512965</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9968644980409951</v>
+        <v>1.069533225220047E-07</v>
       </c>
       <c r="E19">
-        <v>0.003135501959004916</v>
+        <v>0.9999998930466775</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9970547863204515</v>
+        <v>1.23269073670916E-06</v>
       </c>
       <c r="E20">
-        <v>0.002945213679548475</v>
+        <v>0.9999987673092633</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9971504410711691</v>
+        <v>0.04500703619786998</v>
       </c>
       <c r="E21">
-        <v>0.002849558928830875</v>
+        <v>0.9549929638021301</v>
       </c>
       <c r="F21">
-        <v>0.04852766916155815</v>
+        <v>5.703360557556152</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
